--- a/接口文档/店铺api/店铺接口.xlsx
+++ b/接口文档/店铺api/店铺接口.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21495" windowHeight="10350" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21495" windowHeight="10350" firstSheet="3" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="封面" sheetId="1" r:id="rId1"/>
@@ -13,13 +13,14 @@
     <sheet name="商家入驻申请接口" sheetId="4" r:id="rId4"/>
     <sheet name="查看审核申请进度接口" sheetId="5" r:id="rId5"/>
     <sheet name="删除店铺信息接口" sheetId="7" r:id="rId6"/>
+    <sheet name="获取用户的店铺ID" sheetId="9" r:id="rId7"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="127">
   <si>
     <t>序号</t>
   </si>
@@ -468,6 +469,65 @@
   </si>
   <si>
     <t>主键</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>商家入驻申请接口</t>
+  </si>
+  <si>
+    <t>查看审核申请进度接口</t>
+  </si>
+  <si>
+    <t>删除店铺信息接口</t>
+  </si>
+  <si>
+    <t>http://192.168.1.117/api/seller/v1/me</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ame</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户名</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>loginnum</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>mobile</t>
+  </si>
+  <si>
+    <t>storeId</t>
+  </si>
+  <si>
+    <t>店铺编号</t>
+  </si>
+  <si>
+    <t>手机号</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -726,7 +786,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -831,6 +891,15 @@
     <xf numFmtId="49" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -861,19 +930,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1187,186 +1253,186 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="7" spans="7:14">
-      <c r="G7" s="36" t="s">
+      <c r="G7" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="H7" s="36"/>
-      <c r="I7" s="36"/>
-      <c r="J7" s="36"/>
-      <c r="K7" s="36"/>
-      <c r="L7" s="36"/>
-      <c r="M7" s="36"/>
-      <c r="N7" s="36"/>
+      <c r="H7" s="39"/>
+      <c r="I7" s="39"/>
+      <c r="J7" s="39"/>
+      <c r="K7" s="39"/>
+      <c r="L7" s="39"/>
+      <c r="M7" s="39"/>
+      <c r="N7" s="39"/>
     </row>
     <row r="8" spans="7:14">
-      <c r="G8" s="36"/>
-      <c r="H8" s="36"/>
-      <c r="I8" s="36"/>
-      <c r="J8" s="36"/>
-      <c r="K8" s="36"/>
-      <c r="L8" s="36"/>
-      <c r="M8" s="36"/>
-      <c r="N8" s="36"/>
+      <c r="G8" s="39"/>
+      <c r="H8" s="39"/>
+      <c r="I8" s="39"/>
+      <c r="J8" s="39"/>
+      <c r="K8" s="39"/>
+      <c r="L8" s="39"/>
+      <c r="M8" s="39"/>
+      <c r="N8" s="39"/>
     </row>
     <row r="9" spans="7:14">
-      <c r="G9" s="36"/>
-      <c r="H9" s="36"/>
-      <c r="I9" s="36"/>
-      <c r="J9" s="36"/>
-      <c r="K9" s="36"/>
-      <c r="L9" s="36"/>
-      <c r="M9" s="36"/>
-      <c r="N9" s="36"/>
+      <c r="G9" s="39"/>
+      <c r="H9" s="39"/>
+      <c r="I9" s="39"/>
+      <c r="J9" s="39"/>
+      <c r="K9" s="39"/>
+      <c r="L9" s="39"/>
+      <c r="M9" s="39"/>
+      <c r="N9" s="39"/>
     </row>
     <row r="10" spans="7:14">
-      <c r="G10" s="36"/>
-      <c r="H10" s="36"/>
-      <c r="I10" s="36"/>
-      <c r="J10" s="36"/>
-      <c r="K10" s="36"/>
-      <c r="L10" s="36"/>
-      <c r="M10" s="36"/>
-      <c r="N10" s="36"/>
+      <c r="G10" s="39"/>
+      <c r="H10" s="39"/>
+      <c r="I10" s="39"/>
+      <c r="J10" s="39"/>
+      <c r="K10" s="39"/>
+      <c r="L10" s="39"/>
+      <c r="M10" s="39"/>
+      <c r="N10" s="39"/>
     </row>
     <row r="11" spans="7:14">
-      <c r="G11" s="36"/>
-      <c r="H11" s="36"/>
-      <c r="I11" s="36"/>
-      <c r="J11" s="36"/>
-      <c r="K11" s="36"/>
-      <c r="L11" s="36"/>
-      <c r="M11" s="36"/>
-      <c r="N11" s="36"/>
+      <c r="G11" s="39"/>
+      <c r="H11" s="39"/>
+      <c r="I11" s="39"/>
+      <c r="J11" s="39"/>
+      <c r="K11" s="39"/>
+      <c r="L11" s="39"/>
+      <c r="M11" s="39"/>
+      <c r="N11" s="39"/>
     </row>
     <row r="12" spans="7:14">
-      <c r="G12" s="36"/>
-      <c r="H12" s="36"/>
-      <c r="I12" s="36"/>
-      <c r="J12" s="36"/>
-      <c r="K12" s="36"/>
-      <c r="L12" s="36"/>
-      <c r="M12" s="36"/>
-      <c r="N12" s="36"/>
+      <c r="G12" s="39"/>
+      <c r="H12" s="39"/>
+      <c r="I12" s="39"/>
+      <c r="J12" s="39"/>
+      <c r="K12" s="39"/>
+      <c r="L12" s="39"/>
+      <c r="M12" s="39"/>
+      <c r="N12" s="39"/>
     </row>
     <row r="13" spans="7:14">
-      <c r="G13" s="36"/>
-      <c r="H13" s="36"/>
-      <c r="I13" s="36"/>
-      <c r="J13" s="36"/>
-      <c r="K13" s="36"/>
-      <c r="L13" s="36"/>
-      <c r="M13" s="36"/>
-      <c r="N13" s="36"/>
+      <c r="G13" s="39"/>
+      <c r="H13" s="39"/>
+      <c r="I13" s="39"/>
+      <c r="J13" s="39"/>
+      <c r="K13" s="39"/>
+      <c r="L13" s="39"/>
+      <c r="M13" s="39"/>
+      <c r="N13" s="39"/>
     </row>
     <row r="14" spans="7:14">
-      <c r="G14" s="36"/>
-      <c r="H14" s="36"/>
-      <c r="I14" s="36"/>
-      <c r="J14" s="36"/>
-      <c r="K14" s="36"/>
-      <c r="L14" s="36"/>
-      <c r="M14" s="36"/>
-      <c r="N14" s="36"/>
+      <c r="G14" s="39"/>
+      <c r="H14" s="39"/>
+      <c r="I14" s="39"/>
+      <c r="J14" s="39"/>
+      <c r="K14" s="39"/>
+      <c r="L14" s="39"/>
+      <c r="M14" s="39"/>
+      <c r="N14" s="39"/>
     </row>
     <row r="15" spans="7:14">
-      <c r="G15" s="36"/>
-      <c r="H15" s="36"/>
-      <c r="I15" s="36"/>
-      <c r="J15" s="36"/>
-      <c r="K15" s="36"/>
-      <c r="L15" s="36"/>
-      <c r="M15" s="36"/>
-      <c r="N15" s="36"/>
+      <c r="G15" s="39"/>
+      <c r="H15" s="39"/>
+      <c r="I15" s="39"/>
+      <c r="J15" s="39"/>
+      <c r="K15" s="39"/>
+      <c r="L15" s="39"/>
+      <c r="M15" s="39"/>
+      <c r="N15" s="39"/>
     </row>
     <row r="16" spans="7:14">
-      <c r="G16" s="36"/>
-      <c r="H16" s="36"/>
-      <c r="I16" s="36"/>
-      <c r="J16" s="36"/>
-      <c r="K16" s="36"/>
-      <c r="L16" s="36"/>
-      <c r="M16" s="36"/>
-      <c r="N16" s="36"/>
+      <c r="G16" s="39"/>
+      <c r="H16" s="39"/>
+      <c r="I16" s="39"/>
+      <c r="J16" s="39"/>
+      <c r="K16" s="39"/>
+      <c r="L16" s="39"/>
+      <c r="M16" s="39"/>
+      <c r="N16" s="39"/>
     </row>
     <row r="17" spans="7:14">
-      <c r="G17" s="36"/>
-      <c r="H17" s="36"/>
-      <c r="I17" s="36"/>
-      <c r="J17" s="36"/>
-      <c r="K17" s="36"/>
-      <c r="L17" s="36"/>
-      <c r="M17" s="36"/>
-      <c r="N17" s="36"/>
+      <c r="G17" s="39"/>
+      <c r="H17" s="39"/>
+      <c r="I17" s="39"/>
+      <c r="J17" s="39"/>
+      <c r="K17" s="39"/>
+      <c r="L17" s="39"/>
+      <c r="M17" s="39"/>
+      <c r="N17" s="39"/>
     </row>
     <row r="18" spans="7:14">
-      <c r="G18" s="36"/>
-      <c r="H18" s="36"/>
-      <c r="I18" s="36"/>
-      <c r="J18" s="36"/>
-      <c r="K18" s="36"/>
-      <c r="L18" s="36"/>
-      <c r="M18" s="36"/>
-      <c r="N18" s="36"/>
+      <c r="G18" s="39"/>
+      <c r="H18" s="39"/>
+      <c r="I18" s="39"/>
+      <c r="J18" s="39"/>
+      <c r="K18" s="39"/>
+      <c r="L18" s="39"/>
+      <c r="M18" s="39"/>
+      <c r="N18" s="39"/>
     </row>
     <row r="19" spans="7:14">
-      <c r="G19" s="36"/>
-      <c r="H19" s="36"/>
-      <c r="I19" s="36"/>
-      <c r="J19" s="36"/>
-      <c r="K19" s="36"/>
-      <c r="L19" s="36"/>
-      <c r="M19" s="36"/>
-      <c r="N19" s="36"/>
+      <c r="G19" s="39"/>
+      <c r="H19" s="39"/>
+      <c r="I19" s="39"/>
+      <c r="J19" s="39"/>
+      <c r="K19" s="39"/>
+      <c r="L19" s="39"/>
+      <c r="M19" s="39"/>
+      <c r="N19" s="39"/>
     </row>
     <row r="20" spans="7:14">
-      <c r="G20" s="36"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="36"/>
-      <c r="J20" s="36"/>
-      <c r="K20" s="36"/>
-      <c r="L20" s="36"/>
-      <c r="M20" s="36"/>
-      <c r="N20" s="36"/>
+      <c r="G20" s="39"/>
+      <c r="H20" s="39"/>
+      <c r="I20" s="39"/>
+      <c r="J20" s="39"/>
+      <c r="K20" s="39"/>
+      <c r="L20" s="39"/>
+      <c r="M20" s="39"/>
+      <c r="N20" s="39"/>
     </row>
     <row r="21" spans="7:14">
-      <c r="G21" s="36"/>
-      <c r="H21" s="36"/>
-      <c r="I21" s="36"/>
-      <c r="J21" s="36"/>
-      <c r="K21" s="36"/>
-      <c r="L21" s="36"/>
-      <c r="M21" s="36"/>
-      <c r="N21" s="36"/>
+      <c r="G21" s="39"/>
+      <c r="H21" s="39"/>
+      <c r="I21" s="39"/>
+      <c r="J21" s="39"/>
+      <c r="K21" s="39"/>
+      <c r="L21" s="39"/>
+      <c r="M21" s="39"/>
+      <c r="N21" s="39"/>
     </row>
     <row r="22" spans="7:14">
-      <c r="G22" s="36"/>
-      <c r="H22" s="36"/>
-      <c r="I22" s="36"/>
-      <c r="J22" s="36"/>
-      <c r="K22" s="36"/>
-      <c r="L22" s="36"/>
-      <c r="M22" s="36"/>
-      <c r="N22" s="36"/>
+      <c r="G22" s="39"/>
+      <c r="H22" s="39"/>
+      <c r="I22" s="39"/>
+      <c r="J22" s="39"/>
+      <c r="K22" s="39"/>
+      <c r="L22" s="39"/>
+      <c r="M22" s="39"/>
+      <c r="N22" s="39"/>
     </row>
     <row r="23" spans="7:14">
-      <c r="G23" s="36"/>
-      <c r="H23" s="36"/>
-      <c r="I23" s="36"/>
-      <c r="J23" s="36"/>
-      <c r="K23" s="36"/>
-      <c r="L23" s="36"/>
-      <c r="M23" s="36"/>
-      <c r="N23" s="36"/>
+      <c r="G23" s="39"/>
+      <c r="H23" s="39"/>
+      <c r="I23" s="39"/>
+      <c r="J23" s="39"/>
+      <c r="K23" s="39"/>
+      <c r="L23" s="39"/>
+      <c r="M23" s="39"/>
+      <c r="N23" s="39"/>
     </row>
     <row r="24" spans="7:14">
-      <c r="G24" s="36"/>
-      <c r="H24" s="36"/>
-      <c r="I24" s="36"/>
-      <c r="J24" s="36"/>
-      <c r="K24" s="36"/>
-      <c r="L24" s="36"/>
-      <c r="M24" s="36"/>
-      <c r="N24" s="36"/>
+      <c r="G24" s="39"/>
+      <c r="H24" s="39"/>
+      <c r="I24" s="39"/>
+      <c r="J24" s="39"/>
+      <c r="K24" s="39"/>
+      <c r="L24" s="39"/>
+      <c r="M24" s="39"/>
+      <c r="N24" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1382,7 +1448,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10:B11"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1411,19 +1477,25 @@
       <c r="A3" s="22">
         <v>3</v>
       </c>
-      <c r="B3" s="33"/>
+      <c r="B3" s="33" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="22">
         <v>4</v>
       </c>
-      <c r="B4" s="33"/>
+      <c r="B4" s="33" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="22">
         <v>5</v>
       </c>
-      <c r="B5" s="33"/>
+      <c r="B5" s="33" t="s">
+        <v>115</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>
@@ -1453,37 +1525,37 @@
       <c r="A1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="45"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="48"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="49" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="47" t="s">
+      <c r="B3" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="40" t="s">
+      <c r="A4" s="43" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="5" t="s">
@@ -1500,7 +1572,7 @@
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="41"/>
+      <c r="A5" s="44"/>
       <c r="B5" s="2" t="s">
         <v>92</v>
       </c>
@@ -1515,7 +1587,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="21" customHeight="1">
-      <c r="A6" s="42"/>
+      <c r="A6" s="45"/>
       <c r="B6" s="24" t="s">
         <v>93</v>
       </c>
@@ -1575,18 +1647,18 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="17.100000000000001" customHeight="1">
-      <c r="A10" s="40" t="s">
+      <c r="A10" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="37" t="s">
+      <c r="B10" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="38"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="39"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="42"/>
     </row>
     <row r="11" spans="1:5" ht="18.95" customHeight="1">
-      <c r="A11" s="41"/>
+      <c r="A11" s="44"/>
       <c r="B11" s="29" t="s">
         <v>25</v>
       </c>
@@ -1601,7 +1673,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="15.95" customHeight="1">
-      <c r="A12" s="41"/>
+      <c r="A12" s="44"/>
       <c r="B12" s="29" t="s">
         <v>27</v>
       </c>
@@ -1616,7 +1688,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="15.95" customHeight="1">
-      <c r="A13" s="41"/>
+      <c r="A13" s="44"/>
       <c r="B13" s="30" t="s">
         <v>29</v>
       </c>
@@ -1631,16 +1703,16 @@
       </c>
     </row>
     <row r="14" spans="1:5" ht="15" customHeight="1">
-      <c r="A14" s="41"/>
-      <c r="B14" s="37" t="s">
+      <c r="A14" s="44"/>
+      <c r="B14" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="38"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="39"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="42"/>
     </row>
     <row r="15" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A15" s="41"/>
+      <c r="A15" s="44"/>
       <c r="B15" s="24" t="s">
         <v>23</v>
       </c>
@@ -1655,7 +1727,7 @@
       </c>
     </row>
     <row r="16" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A16" s="41"/>
+      <c r="A16" s="44"/>
       <c r="B16" s="24" t="s">
         <v>37</v>
       </c>
@@ -1670,7 +1742,7 @@
       </c>
     </row>
     <row r="17" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A17" s="41"/>
+      <c r="A17" s="44"/>
       <c r="B17" s="2" t="s">
         <v>38</v>
       </c>
@@ -1685,7 +1757,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A18" s="41"/>
+      <c r="A18" s="44"/>
       <c r="B18" s="24" t="s">
         <v>39</v>
       </c>
@@ -1700,7 +1772,7 @@
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="41"/>
+      <c r="A19" s="44"/>
       <c r="B19" s="25" t="s">
         <v>40</v>
       </c>
@@ -1715,7 +1787,7 @@
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="42"/>
+      <c r="A20" s="45"/>
       <c r="B20" s="25" t="s">
         <v>41</v>
       </c>
@@ -2138,37 +2210,37 @@
       <c r="A1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="45"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="48"/>
     </row>
     <row r="2" spans="1:5" ht="15">
       <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
     </row>
     <row r="3" spans="1:5" ht="15">
       <c r="A3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="47" t="s">
+      <c r="B3" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
     </row>
     <row r="4" spans="1:5" ht="15">
-      <c r="A4" s="40" t="s">
+      <c r="A4" s="43" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="5" t="s">
@@ -2185,7 +2257,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="17.100000000000001" customHeight="1">
-      <c r="A5" s="41"/>
+      <c r="A5" s="44"/>
       <c r="B5" s="24" t="s">
         <v>37</v>
       </c>
@@ -2581,18 +2653,18 @@
       <c r="E32" s="27"/>
     </row>
     <row r="33" spans="1:5" ht="15" customHeight="1">
-      <c r="A33" s="40" t="s">
+      <c r="A33" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="B33" s="37" t="s">
+      <c r="B33" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="C33" s="38"/>
-      <c r="D33" s="38"/>
-      <c r="E33" s="39"/>
+      <c r="C33" s="41"/>
+      <c r="D33" s="41"/>
+      <c r="E33" s="42"/>
     </row>
     <row r="34" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A34" s="41"/>
+      <c r="A34" s="44"/>
       <c r="B34" s="29" t="s">
         <v>91</v>
       </c>
@@ -2607,7 +2679,7 @@
       </c>
     </row>
     <row r="35" spans="1:5" ht="16.5">
-      <c r="A35" s="42"/>
+      <c r="A35" s="45"/>
       <c r="B35" s="29" t="s">
         <v>27</v>
       </c>
@@ -2636,12 +2708,12 @@
       </c>
     </row>
     <row r="37" spans="1:5" ht="16.5">
-      <c r="B37" s="37" t="s">
+      <c r="B37" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="C37" s="38"/>
-      <c r="D37" s="38"/>
-      <c r="E37" s="39"/>
+      <c r="C37" s="41"/>
+      <c r="D37" s="41"/>
+      <c r="E37" s="42"/>
     </row>
     <row r="38" spans="1:5" ht="16.5">
       <c r="B38" s="24" t="s">
@@ -3051,7 +3123,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
@@ -3069,37 +3141,37 @@
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="45"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="48"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="49" t="s">
         <v>102</v>
       </c>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="49" t="s">
+      <c r="B3" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="40" t="s">
+      <c r="A4" s="43" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="5" t="s">
@@ -3116,25 +3188,25 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="21" customHeight="1">
-      <c r="A5" s="41"/>
+      <c r="A5" s="44"/>
       <c r="B5" s="24"/>
       <c r="C5" s="2"/>
       <c r="D5" s="28"/>
       <c r="E5" s="24"/>
     </row>
     <row r="6" spans="1:5" s="17" customFormat="1" ht="21" customHeight="1">
-      <c r="A6" s="40" t="s">
+      <c r="A6" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="37" t="s">
+      <c r="B6" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="39"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="42"/>
     </row>
     <row r="7" spans="1:5" ht="21.95" customHeight="1">
-      <c r="A7" s="41"/>
+      <c r="A7" s="44"/>
       <c r="B7" s="29" t="s">
         <v>25</v>
       </c>
@@ -3149,7 +3221,7 @@
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="42"/>
+      <c r="A8" s="45"/>
       <c r="B8" s="29" t="s">
         <v>27</v>
       </c>
@@ -3179,12 +3251,12 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="13"/>
-      <c r="B10" s="37" t="s">
+      <c r="B10" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="38"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="39"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="42"/>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="13"/>
@@ -3587,7 +3659,7 @@
       <c r="D37" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E37" s="50" t="s">
+      <c r="E37" s="38" t="s">
         <v>104</v>
       </c>
     </row>
@@ -3678,34 +3750,34 @@
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="45"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="48"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="49" t="s">
         <v>109</v>
       </c>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="49" t="s">
+      <c r="B3" s="52" t="s">
         <v>110</v>
       </c>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="4" t="s">
@@ -3747,18 +3819,18 @@
       <c r="E6" s="10"/>
     </row>
     <row r="7" spans="1:5" ht="21.95" customHeight="1">
-      <c r="A7" s="40" t="s">
+      <c r="A7" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="37" t="s">
+      <c r="B7" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="39"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="42"/>
     </row>
     <row r="8" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A8" s="41"/>
+      <c r="A8" s="44"/>
       <c r="B8" s="29" t="s">
         <v>25</v>
       </c>
@@ -3773,7 +3845,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A9" s="41"/>
+      <c r="A9" s="44"/>
       <c r="B9" s="29" t="s">
         <v>27</v>
       </c>
@@ -3788,7 +3860,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A10" s="41"/>
+      <c r="A10" s="44"/>
       <c r="B10" s="30" t="s">
         <v>29</v>
       </c>
@@ -3803,20 +3875,20 @@
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="41"/>
+      <c r="A11" s="44"/>
       <c r="B11" s="11"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="41"/>
-      <c r="B12" s="37" t="s">
+      <c r="A12" s="44"/>
+      <c r="B12" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="38"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="39"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="42"/>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="42"/>
+      <c r="A13" s="45"/>
       <c r="B13" s="24"/>
       <c r="C13" s="2"/>
       <c r="E13" s="24"/>
@@ -4090,4 +4162,503 @@
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E98"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="16.75" style="1" customWidth="1"/>
+    <col min="2" max="2" width="50.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9" style="1" customWidth="1"/>
+    <col min="5" max="5" width="56.25" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="46" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="48"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="49" t="s">
+        <v>116</v>
+      </c>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="52" t="s">
+        <v>110</v>
+      </c>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="21" customHeight="1">
+      <c r="A5" s="37"/>
+      <c r="B5" s="35" t="s">
+        <v>117</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="35" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="21" customHeight="1">
+      <c r="A6" s="37"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="10"/>
+    </row>
+    <row r="7" spans="1:5" ht="21.95" customHeight="1">
+      <c r="A7" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="41"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="42"/>
+    </row>
+    <row r="8" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A8" s="44"/>
+      <c r="B8" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="24" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A9" s="44"/>
+      <c r="B9" s="29" t="s">
+        <v>119</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="24" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A10" s="44"/>
+      <c r="B10" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="27" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A11" s="44"/>
+      <c r="B11" s="30" t="s">
+        <v>120</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="27" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A12" s="44"/>
+      <c r="B12" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="27" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A13" s="44"/>
+      <c r="B13" s="30" t="s">
+        <v>122</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="27" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A14" s="44"/>
+      <c r="B14" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="27" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A15" s="44"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="27"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="44"/>
+      <c r="B16" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="41"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="42"/>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="45"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="2"/>
+      <c r="E17" s="24"/>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="B18" s="24"/>
+      <c r="C18" s="2"/>
+      <c r="E18" s="24"/>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="B19" s="24"/>
+      <c r="C19" s="2"/>
+      <c r="E19" s="24"/>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="E20" s="24"/>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="B21" s="24"/>
+      <c r="C21" s="2"/>
+      <c r="E21" s="24"/>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="B22" s="25"/>
+      <c r="C22" s="2"/>
+      <c r="E22" s="27"/>
+    </row>
+    <row r="23" spans="1:5" ht="25.5" customHeight="1">
+      <c r="B23" s="25"/>
+      <c r="C23" s="2"/>
+      <c r="E23" s="27"/>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="B24" s="12"/>
+      <c r="E24" s="14"/>
+    </row>
+    <row r="25" spans="1:5" ht="17.25" customHeight="1">
+      <c r="B25" s="12"/>
+    </row>
+    <row r="26" spans="1:5" ht="21" customHeight="1">
+      <c r="B26" s="12"/>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="B27" s="12"/>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="B28" s="12"/>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="B29" s="12"/>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="B30" s="12"/>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="B31" s="12"/>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="B32" s="12"/>
+    </row>
+    <row r="33" spans="2:2">
+      <c r="B33" s="12"/>
+    </row>
+    <row r="34" spans="2:2">
+      <c r="B34" s="12"/>
+    </row>
+    <row r="35" spans="2:2">
+      <c r="B35" s="12"/>
+    </row>
+    <row r="36" spans="2:2">
+      <c r="B36" s="12"/>
+    </row>
+    <row r="37" spans="2:2">
+      <c r="B37" s="12"/>
+    </row>
+    <row r="38" spans="2:2">
+      <c r="B38" s="12"/>
+    </row>
+    <row r="39" spans="2:2">
+      <c r="B39" s="12"/>
+    </row>
+    <row r="40" spans="2:2">
+      <c r="B40" s="12"/>
+    </row>
+    <row r="41" spans="2:2">
+      <c r="B41" s="12"/>
+    </row>
+    <row r="42" spans="2:2">
+      <c r="B42" s="12"/>
+    </row>
+    <row r="43" spans="2:2">
+      <c r="B43" s="12"/>
+    </row>
+    <row r="44" spans="2:2">
+      <c r="B44" s="12"/>
+    </row>
+    <row r="45" spans="2:2">
+      <c r="B45" s="12"/>
+    </row>
+    <row r="46" spans="2:2">
+      <c r="B46" s="12"/>
+    </row>
+    <row r="47" spans="2:2">
+      <c r="B47" s="12"/>
+    </row>
+    <row r="48" spans="2:2">
+      <c r="B48" s="12"/>
+    </row>
+    <row r="49" spans="2:2">
+      <c r="B49" s="12"/>
+    </row>
+    <row r="50" spans="2:2">
+      <c r="B50" s="12"/>
+    </row>
+    <row r="51" spans="2:2">
+      <c r="B51" s="12"/>
+    </row>
+    <row r="52" spans="2:2">
+      <c r="B52" s="12"/>
+    </row>
+    <row r="53" spans="2:2">
+      <c r="B53" s="12"/>
+    </row>
+    <row r="54" spans="2:2">
+      <c r="B54" s="12"/>
+    </row>
+    <row r="55" spans="2:2">
+      <c r="B55" s="12"/>
+    </row>
+    <row r="56" spans="2:2">
+      <c r="B56" s="12"/>
+    </row>
+    <row r="57" spans="2:2">
+      <c r="B57" s="12"/>
+    </row>
+    <row r="58" spans="2:2">
+      <c r="B58" s="12"/>
+    </row>
+    <row r="59" spans="2:2">
+      <c r="B59" s="12"/>
+    </row>
+    <row r="60" spans="2:2">
+      <c r="B60" s="12"/>
+    </row>
+    <row r="61" spans="2:2">
+      <c r="B61" s="12"/>
+    </row>
+    <row r="62" spans="2:2">
+      <c r="B62" s="12"/>
+    </row>
+    <row r="63" spans="2:2">
+      <c r="B63" s="12"/>
+    </row>
+    <row r="64" spans="2:2">
+      <c r="B64" s="12"/>
+    </row>
+    <row r="65" spans="2:2">
+      <c r="B65" s="12"/>
+    </row>
+    <row r="66" spans="2:2">
+      <c r="B66" s="12"/>
+    </row>
+    <row r="67" spans="2:2">
+      <c r="B67" s="12"/>
+    </row>
+    <row r="68" spans="2:2">
+      <c r="B68" s="12"/>
+    </row>
+    <row r="69" spans="2:2">
+      <c r="B69" s="12"/>
+    </row>
+    <row r="70" spans="2:2">
+      <c r="B70" s="12"/>
+    </row>
+    <row r="71" spans="2:2">
+      <c r="B71" s="12"/>
+    </row>
+    <row r="72" spans="2:2">
+      <c r="B72" s="12"/>
+    </row>
+    <row r="73" spans="2:2">
+      <c r="B73" s="12"/>
+    </row>
+    <row r="74" spans="2:2">
+      <c r="B74" s="12"/>
+    </row>
+    <row r="75" spans="2:2">
+      <c r="B75" s="12"/>
+    </row>
+    <row r="76" spans="2:2">
+      <c r="B76" s="12"/>
+    </row>
+    <row r="77" spans="2:2">
+      <c r="B77" s="12"/>
+    </row>
+    <row r="78" spans="2:2">
+      <c r="B78" s="12"/>
+    </row>
+    <row r="79" spans="2:2">
+      <c r="B79" s="12"/>
+    </row>
+    <row r="80" spans="2:2">
+      <c r="B80" s="12"/>
+    </row>
+    <row r="81" spans="2:2">
+      <c r="B81" s="12"/>
+    </row>
+    <row r="82" spans="2:2">
+      <c r="B82" s="12"/>
+    </row>
+    <row r="83" spans="2:2">
+      <c r="B83" s="12"/>
+    </row>
+    <row r="84" spans="2:2">
+      <c r="B84" s="12"/>
+    </row>
+    <row r="85" spans="2:2">
+      <c r="B85" s="12"/>
+    </row>
+    <row r="86" spans="2:2">
+      <c r="B86" s="12"/>
+    </row>
+    <row r="87" spans="2:2">
+      <c r="B87" s="12"/>
+    </row>
+    <row r="88" spans="2:2">
+      <c r="B88" s="12"/>
+    </row>
+    <row r="89" spans="2:2">
+      <c r="B89" s="12"/>
+    </row>
+    <row r="90" spans="2:2">
+      <c r="B90" s="12"/>
+    </row>
+    <row r="91" spans="2:2">
+      <c r="B91" s="12"/>
+    </row>
+    <row r="92" spans="2:2">
+      <c r="B92" s="12"/>
+    </row>
+    <row r="93" spans="2:2">
+      <c r="B93" s="12"/>
+    </row>
+    <row r="94" spans="2:2">
+      <c r="B94" s="12"/>
+    </row>
+    <row r="95" spans="2:2">
+      <c r="B95" s="12"/>
+    </row>
+    <row r="96" spans="2:2">
+      <c r="B96" s="12"/>
+    </row>
+    <row r="97" spans="2:2">
+      <c r="B97" s="12"/>
+    </row>
+    <row r="98" spans="2:2">
+      <c r="B98" s="12"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="A7:A17"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="B16:E16"/>
+  </mergeCells>
+  <phoneticPr fontId="10" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/接口文档/店铺api/店铺接口.xlsx
+++ b/接口文档/店铺api/店铺接口.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21495" windowHeight="10350" firstSheet="3" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21495" windowHeight="10350" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="封面" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="128">
   <si>
     <t>序号</t>
   </si>
@@ -529,6 +529,9 @@
   <si>
     <t>密码</t>
     <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取用户的店铺ID</t>
   </si>
 </sst>
 </file>
@@ -547,6 +550,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -554,12 +558,14 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1445,10 +1451,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1495,6 +1501,14 @@
       </c>
       <c r="B5" s="33" t="s">
         <v>115</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="22">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -4168,7 +4182,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E98"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
